--- a/app/webroot/img/transmittal.xlsx
+++ b/app/webroot/img/transmittal.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="22695" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23,18 +24,19 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -49,49 +51,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,72 +380,72 @@
     <col min="11" max="11" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -476,134 +453,136 @@
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="28">
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="C6:J6"/>
@@ -635,7 +614,7 @@
     <mergeCell ref="F15:H15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -647,6 +626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -659,6 +639,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>